--- a/medicine/Enfance/Clifford_B._Hicks/Clifford_B._Hicks.xlsx
+++ b/medicine/Enfance/Clifford_B._Hicks/Clifford_B._Hicks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clifford B. Hicks, né le 10 août 1920 et mort le 29 septembre 2010, est un éditeur américain et un auteur d'ouvrages pour la jeunesse. 
 Il est notamment connu pour sa série The Adventures of Alvin Fernald, parue en France sous le titre Les Aventures d'Alain Fernal.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Clifford B. Hicks naît à Marshalltown dans l'Iowa en 1920. Il est diplômé de l'université Northwestern puis fait son service dans le corps des Marines durant la Seconde Guerre mondiale. Il est décoré de la Silver Star.
 En 1945, il rejoint la direction du magazine Popular Mechanics. Il publie notamment le magazine Do-It-Yourself Materials Guide et Do-It-Yourself Encyclopedia.
@@ -550,8 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Alvin Fernald / Alain Fernal
-The Marvelous Inventions of Alvin Fernald, 1960, illustré par Charles Geer (publié en France sous le titre : Les Fabuleuses inventions d'Alain Fernal).
+          <t>Série Alvin Fernald / Alain Fernal</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>The Marvelous Inventions of Alvin Fernald, 1960, illustré par Charles Geer (publié en France sous le titre : Les Fabuleuses inventions d'Alain Fernal).
 Alvin's Secret Code, 1963 (publié en France sous le titre : Le Code secret d'Alain Fernal).
 Alvin Fernald, Foreign Trader – 1966.
 Alvin Fernald, Mayor for a Day – 1970.
@@ -560,14 +579,7 @@
 Alvin Fernald, TV Anchorman – 1980.
 The Wacky World of Alvin Fernald – 1981.
 Alvin Fernald, Master of a Thousand Disguises – 1986.
-Alvin Fernald's Incredible Buried Treasure – 2009.
-Série Peter Potts
-Peter Potts – 1971.
-Pop and Peter Potts – 1984.
-Peter Potts Book of World Records – 1987.
-Autres ouvrages
-First Boy on the Moon – 1959.
-The World Above – 1965.</t>
+Alvin Fernald's Incredible Buried Treasure – 2009.</t>
         </is>
       </c>
     </row>
@@ -592,10 +604,87 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Peter Potts</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Peter Potts – 1971.
+Pop and Peter Potts – 1984.
+Peter Potts Book of World Records – 1987.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Clifford_B._Hicks</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clifford_B._Hicks</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres ouvrages</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>First Boy on the Moon – 1959.
+The World Above – 1965.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Clifford_B._Hicks</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clifford_B._Hicks</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Compléments</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
